--- a/map_file/상품좌표.xlsx
+++ b/map_file/상품좌표.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\S10P22C109\map_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,22 @@
   </si>
   <si>
     <t>대기 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,15 +563,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M57"/>
+  <dimension ref="B2:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -563,7 +579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -583,12 +599,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>-59.988199999999999</v>
+        <v>-59.788200000000003</v>
       </c>
       <c r="D4" s="3">
         <v>-57.945</v>
@@ -597,12 +613,12 @@
         <v>4</v>
       </c>
       <c r="G4" s="3">
-        <f>ROUNDDOWN((C4-(-50-25))/0.2,0)</f>
-        <v>75</v>
+        <f>ROUNDDOWN((C4-(-50-25))/0.1,0)</f>
+        <v>152</v>
       </c>
       <c r="H4" s="3">
-        <f>ROUNDDOWN((D4-(-50-25))/0.2,0)</f>
-        <v>85</v>
+        <f>ROUNDDOWN((D4-(-50-25))/0.1,0)</f>
+        <v>170</v>
       </c>
       <c r="L4">
         <v>-55.376199999999997</v>
@@ -612,7 +628,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -626,15 +642,15 @@
         <v>6</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G10" si="0">ROUNDDOWN((C5-(-50-25))/0.2,0)</f>
-        <v>60</v>
+        <f t="shared" ref="G5:G8" si="0">ROUNDDOWN((C5-(-50-25))/0.1,0)</f>
+        <v>120</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" ref="H5:H10" si="1">ROUNDDOWN((D5-(-50-25))/0.2,0)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+        <f t="shared" ref="H5:H8" si="1">ROUNDDOWN((D5-(-50-25))/0.1,0)</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -649,14 +665,32 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -671,14 +705,34 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-63.591500000000003</v>
+      </c>
+      <c r="M7" s="3">
+        <v>-55.901499999999999</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="3">
+        <f>ROUNDDOWN((L7-(-50-25))/0.1,0)</f>
+        <v>114</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>ROUNDDOWN((M7-(-50-25))/0.1,0)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -693,14 +747,38 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3">
+        <v>-62.9709</v>
+      </c>
+      <c r="M8" s="3">
+        <v>-73.831000000000003</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="3">
+        <f>ROUNDDOWN((L8-(-50-25))/0.1,0)</f>
+        <v>120</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>ROUNDDOWN((M8-(-50-25))/0.1,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -708,21 +786,21 @@
         <v>-66.133600000000001</v>
       </c>
       <c r="D10" s="3">
-        <v>-72.823099999999997</v>
+        <v>-72.723100000000002</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <f t="shared" ref="G9:G23" si="2">ROUNDDOWN((C10-(-50-25))/0.1,0)</f>
+        <v>88</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+        <f t="shared" ref="H9:H23" si="3">ROUNDDOWN((D10-(-50-25))/0.1,0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -730,21 +808,21 @@
         <v>-66.133600000000001</v>
       </c>
       <c r="D11" s="3">
-        <v>-68.817599999999999</v>
+        <v>-68.717600000000004</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" ref="G11:G14" si="2">ROUNDDOWN((C11-(-50-25))/0.2,0)</f>
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>88</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" ref="H11:H14" si="3">ROUNDDOWN((D11-(-50-25))/0.2,0)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -752,21 +830,21 @@
         <v>-66.133600000000001</v>
       </c>
       <c r="D12" s="3">
-        <v>-64.808199999999999</v>
+        <v>-64.708200000000005</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -774,21 +852,21 @@
         <v>-66.133600000000001</v>
       </c>
       <c r="D13" s="7">
-        <v>-60.823300000000003</v>
+        <v>-60.723300000000002</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -796,21 +874,46 @@
         <v>-66.133600000000001</v>
       </c>
       <c r="D14" s="7">
-        <v>-56.807099999999998</v>
+        <v>-56.707099999999997</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14">
+        <v>55</v>
+      </c>
+      <c r="O14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="M15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15">
+        <v>95</v>
+      </c>
+      <c r="O15">
+        <v>106</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -824,15 +927,15 @@
         <v>26</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" ref="G16:G19" si="4">ROUNDDOWN((C16-(-50-25))/0.2,0)</f>
-        <v>88</v>
+        <f t="shared" si="2"/>
+        <v>177</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" ref="H16:H19" si="5">ROUNDDOWN((D16-(-50-25))/0.2,0)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -846,15 +949,24 @@
         <v>27</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="4"/>
-        <v>95</v>
+        <f t="shared" si="2"/>
+        <v>190</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="5"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17">
+        <v>56</v>
+      </c>
+      <c r="O17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -868,15 +980,27 @@
         <v>28</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="4"/>
-        <v>101</v>
+        <f t="shared" si="2"/>
+        <v>203</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="5"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18">
+        <v>107</v>
+      </c>
+      <c r="O18">
+        <v>116</v>
+      </c>
+      <c r="Q18">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
@@ -890,15 +1014,28 @@
         <v>29</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="4"/>
-        <v>107</v>
+        <f t="shared" si="2"/>
+        <v>215</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="5"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20">
+        <v>40</v>
+      </c>
+      <c r="O20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
@@ -912,15 +1049,27 @@
         <v>23</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" ref="G21:H23" si="6">ROUNDDOWN((C21-(-50-25))/0.2,0)</f>
-        <v>108</v>
+        <f t="shared" si="2"/>
+        <v>216</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="6"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="M21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21">
+        <v>107</v>
+      </c>
+      <c r="O21">
+        <v>116</v>
+      </c>
+      <c r="Q21">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
@@ -934,15 +1083,15 @@
         <v>24</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="6"/>
-        <v>78</v>
+        <f t="shared" si="2"/>
+        <v>157</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="6"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
@@ -956,12 +1105,35 @@
         <v>25</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>53</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="6"/>
-        <v>112</v>
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23">
+        <v>56</v>
+      </c>
+      <c r="O23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="M24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>30</v>
+      </c>
+      <c r="Q24">
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
@@ -1020,11 +1192,11 @@
         <v>6</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" ref="G39:G48" si="7">ROUNDDOWN((C39-(-50-25))/0.2,0)</f>
+        <f t="shared" ref="G39:G48" si="4">ROUNDDOWN((C39-(-50-25))/0.2,0)</f>
         <v>143</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" ref="H39:H48" si="8">ROUNDDOWN((D39-(-50-25))/0.2,0)</f>
+        <f t="shared" ref="H39:H48" si="5">ROUNDDOWN((D39-(-50-25))/0.2,0)</f>
         <v>122</v>
       </c>
     </row>
@@ -1042,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="H40" s="3">
@@ -1064,11 +1236,11 @@
         <v>3</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>226</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
     </row>
@@ -1086,11 +1258,11 @@
         <v>2</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>157</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
     </row>
@@ -1116,11 +1288,11 @@
         <v>7</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>227</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
     </row>
@@ -1138,11 +1310,11 @@
         <v>8</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>187</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
     </row>
@@ -1160,11 +1332,11 @@
         <v>9</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
     </row>
@@ -1182,11 +1354,11 @@
         <v>10</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
     </row>
@@ -1204,11 +1376,11 @@
         <v>11</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
     </row>

--- a/map_file/상품좌표.xlsx
+++ b/map_file/상품좌표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,13 +565,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>18</v>
       </c>
@@ -579,7 +579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -628,7 +628,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -650,7 +650,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,24 +715,24 @@
         <v>4</v>
       </c>
       <c r="L7" s="3">
-        <v>-63.591500000000003</v>
+        <v>-55</v>
       </c>
       <c r="M7" s="3">
-        <v>-55.901499999999999</v>
+        <v>-55</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="P7" s="3">
         <f>ROUNDDOWN((L7-(-50-25))/0.1,0)</f>
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="3">
         <f>ROUNDDOWN((M7-(-50-25))/0.1,0)</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -757,28 +757,28 @@
         <v>6</v>
       </c>
       <c r="L8" s="3">
-        <v>-62.9709</v>
+        <v>-55.3</v>
       </c>
       <c r="M8" s="3">
-        <v>-73.831000000000003</v>
+        <v>-55.3</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P8" s="3">
         <f>ROUNDDOWN((L8-(-50-25))/0.1,0)</f>
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="3">
         <f>ROUNDDOWN((M8-(-50-25))/0.1,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -792,15 +792,15 @@
         <v>7</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" ref="G9:G23" si="2">ROUNDDOWN((C10-(-50-25))/0.1,0)</f>
+        <f t="shared" ref="G10:G23" si="2">ROUNDDOWN((C10-(-50-25))/0.1,0)</f>
         <v>88</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" ref="H9:H23" si="3">ROUNDDOWN((D10-(-50-25))/0.1,0)</f>
+        <f t="shared" ref="H10:H23" si="3">ROUNDDOWN((D10-(-50-25))/0.1,0)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -822,7 +822,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -844,7 +844,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -866,7 +866,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -897,7 +897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="M15" t="s">
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -935,7 +935,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -966,7 +966,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="M20" t="s">
@@ -1035,7 +1035,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1091,12 +1091,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="3">
-        <v>-69.638300000000001</v>
+        <v>-69.738299999999995</v>
       </c>
       <c r="D23" s="3">
         <v>-52.488</v>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="G23" s="3">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="3"/>
@@ -1122,7 +1122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="M24" t="s">
         <v>33</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>2</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1274,7 +1274,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>10</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
         <v>14</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>-53.559800000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>-53.559800000000003</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>16</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>-41.240200000000002</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>17</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>-41.240200000000002</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>

--- a/map_file/상품좌표.xlsx
+++ b/map_file/상품좌표.xlsx
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
